--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11760" windowHeight="4905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11070" windowHeight="2970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G14"/>
+  <oleSize ref="A1:K8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>
@@ -65,6 +65,90 @@
   </si>
   <si>
     <t>browser Name</t>
+  </si>
+  <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>TestcaseId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_10001_verify that user can able to perform following actions:Selecting an item,registration, and ordering an item </t>
+  </si>
+  <si>
+    <t>test_10002_verify thet user can able to click add to cart button and confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_10003_verify that user can able to perform mouse hower on cart drop down confirm the details and click on checkout button </t>
+  </si>
+  <si>
+    <t>test_10004_verify that user can able to click on close button present in drop down to cancel the order</t>
+  </si>
+  <si>
+    <t>test_10005_verify that user can able to cancel the checkout by clicking on delete button and confirm on shopping cart summary page</t>
+  </si>
+  <si>
+    <t>test_10006_verify that item image is present in the first column on shopping cart summary page</t>
+  </si>
+  <si>
+    <t>test_10007_verify that order details are present in the shopping cart summary page</t>
+  </si>
+  <si>
+    <t>test_10008_verify that five work flows like summary,sign in,Address,shipping and payment are available in shopping cart summary page</t>
+  </si>
+  <si>
+    <t>test_10010_verify that user can click on proceed checkout page from shopping cart summary page</t>
+  </si>
+  <si>
+    <t>test_10009_verify that user can able to increase and reduce the quantity from shopping cart summary page</t>
+  </si>
+  <si>
+    <t>As a Guest User:Checkout</t>
+  </si>
+  <si>
+    <t>test_10011_verify that order detail total is correct by adding quantity and reducing the quantity</t>
+  </si>
+  <si>
+    <t>test_10012_verify that user entered emailid is correct in authentication page</t>
+  </si>
+  <si>
+    <t>test_10013_verify that if user enters existing email id , application throwing error while registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_10014_verify that user can able to register new account </t>
+  </si>
+  <si>
+    <t>test_10015 _verify that user can able to register account</t>
+  </si>
+  <si>
+    <t>test_10016_verify that user address is correct</t>
+  </si>
+  <si>
+    <t>test_10017_verify that user can able to perform proceed checkout</t>
+  </si>
+  <si>
+    <t>test_10018_verify that user can able to confirm shipping by clicking terms and conditions and proceed check out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_10019_verify that user can able topay by pay by bank </t>
+  </si>
+  <si>
+    <t>test_10020_verify that user can able to pay by check</t>
+  </si>
+  <si>
+    <t>test_10021_verify that user can able to confirm the order and confirm</t>
   </si>
 </sst>
 </file>
@@ -141,13 +225,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +535,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -554,12 +643,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="103.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1">
+        <v>10006</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1">
+        <v>10008</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1">
+        <v>10009</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1">
+        <v>10010</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1">
+        <v>10011</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1">
+        <v>10012</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1">
+        <v>10013</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1">
+        <v>10014</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1">
+        <v>10015</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1">
+        <v>10016</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1">
+        <v>10017</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1">
+        <v>10018</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1">
+        <v>10019</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1">
+        <v>10020</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1">
+        <v>10021</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11070" windowHeight="2970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11070" windowHeight="4830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">test_10001_verify that user can able to perform following actions:Selecting an item,registration, and ordering an item </t>
   </si>
   <si>
-    <t>test_10002_verify thet user can able to click add to cart button and confirm</t>
-  </si>
-  <si>
     <t xml:space="preserve">test_10003_verify that user can able to perform mouse hower on cart drop down confirm the details and click on checkout button </t>
   </si>
   <si>
@@ -149,13 +146,15 @@
   </si>
   <si>
     <t>test_10021_verify that user can able to confirm the order and confirm</t>
+  </si>
+  <si>
+    <t>test_10002_VerifyThetUserCanAbleToClickItem()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -232,11 +231,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,11 +539,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -599,8 +598,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -645,35 +644,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="103.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="103.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -681,8 +680,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>10001</v>
@@ -695,240 +694,240 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <v>10004</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <v>10005</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <v>10006</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <v>10007</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <v>10008</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <v>10009</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1">
         <v>10010</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1">
         <v>10011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1">
         <v>10012</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>10013</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>10014</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>10015</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
         <v>10016</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>10017</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>10018</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>10019</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>10020</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>10021</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11070" windowHeight="4830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="4830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K8"/>
+  <oleSize ref="A1:D14"/>
 </workbook>
 </file>
 
@@ -148,7 +148,7 @@
     <t>test_10021_verify that user can able to confirm the order and confirm</t>
   </si>
   <si>
-    <t>test_10002_VerifyThetUserCanAbleToClickItem()</t>
+    <t>test_10002_VerifyThetUserCanAbleToClickQuickViewItemAndVerifyTheDetails()</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="4830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="4500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:D14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>
@@ -149,12 +149,138 @@
   </si>
   <si>
     <t>test_10002_VerifyThetUserCanAbleToClickQuickViewItemAndVerifyTheDetails()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_10022_ verify that user can able to click add to card button from index page by mouse hovering the image and verify the details </t>
+  </si>
+  <si>
+    <t>test_10023_verify that home featured images are displayed properly</t>
+  </si>
+  <si>
+    <t>test_10100_verify that mouse hover is happening on all images</t>
+  </si>
+  <si>
+    <t>test_10101_verify that while mouse hovering price,Add to cart and More buttons are displaying or not</t>
+  </si>
+  <si>
+    <t>test_10102_verify that while mouse hovering item name text is dispalyed or not</t>
+  </si>
+  <si>
+    <t>test_10103_verify that seven items are displayed in home featured</t>
+  </si>
+  <si>
+    <t>test_10104_verify that Quick view text is displayed in all items</t>
+  </si>
+  <si>
+    <t>test_10105_verify that discount percentage is displayed at fifth and seventh items before mouse hovering or not</t>
+  </si>
+  <si>
+    <t>test_10106_verify that discount percentage is displayed at fifth and seventh items after mouse hovering or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e </t>
+  </si>
+  <si>
+    <t>test_10107_verify that all item images with expected images</t>
+  </si>
+  <si>
+    <t>Quick View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item No </t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Price</t>
+  </si>
+  <si>
+    <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>demo_1</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Faded short sleeve t-shirt with high neckline. Soft and stretchy material for a comfortable fit. Accessorize with a straw hat and you're ready for summer!</t>
+  </si>
+  <si>
+    <t>Color1</t>
+  </si>
+  <si>
+    <t>Color 2</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>test_10108_verify that while clicking the quick view button item name,model,comdition and descriptions are displayed ot not and verify</t>
+  </si>
+  <si>
+    <t>test_10109_verify that while clicking the quick view button item number of images for the item is dipalyed or not and verify</t>
+  </si>
+  <si>
+    <t>test_10110_verify that while clicking the quick view button twitter,fshare,google+ and pinterest buttons displayed or not and validate the mouse hover</t>
+  </si>
+  <si>
+    <t>test_10111_verify that while clicking the quick view button twitter,fshare,google+ and pinterest links are working or not</t>
+  </si>
+  <si>
+    <t>test_10112_verify that while clicking the quick view button increase and reduce the quantity and validate</t>
+  </si>
+  <si>
+    <t>test_10113_verify that while clicking the quick view button validate the size drop down menu by changing the sizes</t>
+  </si>
+  <si>
+    <t>Index Page Quick View As a Guest User</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>test_10114_verify that while clicking the quick view button change the colors and verify the images</t>
+  </si>
+  <si>
+    <t>test_10115_verify that while clicking the quick view button click on Add to wishlist and validate the message</t>
+  </si>
+  <si>
+    <t>test_10116_verify that while clicking the quick view button validate the supporting security box image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_10117_verify that while clicking the quick view button click on add to cart button verify the success message icon,message,item details andcart details </t>
+  </si>
+  <si>
+    <t>test_10118_verify that while clicking the quick view button verify continue shopping and proceed to checkout buttons are displayed or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testcase Name</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -193,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,6 +342,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -224,7 +363,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -233,8 +372,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,19 +740,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="138.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -612,8 +768,10 @@
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -621,8 +779,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,6 +790,65 @@
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="10">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -642,21 +861,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="103.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="120.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
+    <row r="1" spans="1:7" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -669,18 +888,19 @@
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1">
@@ -689,252 +909,702 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1">
         <v>10004</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1">
         <v>10005</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
         <v>10006</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1">
         <v>10007</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1">
         <v>10008</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1">
         <v>10009</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1">
         <v>10010</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
         <v>10011</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1">
         <v>10012</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1">
         <v>10013</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1">
         <v>10014</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1">
         <v>10015</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1">
         <v>10016</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1">
         <v>10017</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1">
         <v>10018</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1">
         <v>10019</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1">
         <v>10020</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1">
         <v>10021</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6">
+        <v>10022</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="6">
+        <v>10023</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="B2:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="142" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1">
+        <v>10102</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1">
+        <v>10103</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1">
+        <v>10104</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1">
+        <v>10105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1">
+        <v>10106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1">
+        <v>10107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1">
+        <v>10108</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1">
+        <v>10109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1">
+        <v>10110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1">
+        <v>10111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1">
+        <v>10112</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1">
+        <v>10113</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1">
+        <v>10114</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1">
+        <v>10115</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1">
+        <v>10116</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1">
+        <v>10117</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1">
+        <v>10118</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="4500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="4440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -373,9 +374,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,6 +382,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,8 +769,8 @@
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -779,8 +780,8 @@
         <v>10</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -790,8 +791,8 @@
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -799,28 +800,28 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -837,7 +838,7 @@
       <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>16.510000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -900,7 +901,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1">
@@ -917,7 +918,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
@@ -932,7 +933,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
@@ -947,7 +948,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1">
         <v>10004</v>
       </c>
@@ -962,7 +963,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>10005</v>
       </c>
@@ -977,7 +978,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1">
         <v>10006</v>
       </c>
@@ -992,7 +993,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1">
         <v>10007</v>
       </c>
@@ -1007,7 +1008,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1">
         <v>10008</v>
       </c>
@@ -1022,7 +1023,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1">
         <v>10009</v>
       </c>
@@ -1037,7 +1038,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1">
         <v>10010</v>
       </c>
@@ -1052,7 +1053,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1">
         <v>10011</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1">
         <v>10012</v>
       </c>
@@ -1082,7 +1083,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1">
         <v>10013</v>
       </c>
@@ -1097,7 +1098,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1">
         <v>10014</v>
       </c>
@@ -1112,7 +1113,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1">
         <v>10015</v>
       </c>
@@ -1127,7 +1128,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1">
         <v>10016</v>
       </c>
@@ -1142,7 +1143,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1">
         <v>10017</v>
       </c>
@@ -1157,7 +1158,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1">
         <v>10018</v>
       </c>
@@ -1172,7 +1173,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1">
         <v>10019</v>
       </c>
@@ -1187,7 +1188,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="1">
         <v>10020</v>
       </c>
@@ -1202,7 +1203,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1">
         <v>10021</v>
       </c>
@@ -1215,7 +1216,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6">
         <v>10022</v>
       </c>
@@ -1252,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,25 +1272,25 @@
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="1">
@@ -1307,7 +1308,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1">
         <v>10101</v>
       </c>
@@ -1323,7 +1324,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1">
         <v>10102</v>
       </c>
@@ -1339,7 +1340,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1">
         <v>10103</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>10104</v>
       </c>
@@ -1371,7 +1372,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1">
         <v>10105</v>
       </c>
@@ -1387,7 +1388,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1">
         <v>10106</v>
       </c>
@@ -1403,7 +1404,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1">
         <v>10107</v>
       </c>
@@ -1419,7 +1420,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1">
         <v>10108</v>
       </c>
@@ -1435,7 +1436,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1">
         <v>10109</v>
       </c>
@@ -1451,7 +1452,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1">
         <v>10110</v>
       </c>
@@ -1467,7 +1468,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1">
         <v>10111</v>
       </c>
@@ -1483,7 +1484,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1">
         <v>10112</v>
       </c>
@@ -1499,7 +1500,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1">
         <v>10113</v>
       </c>
@@ -1515,7 +1516,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1">
         <v>10114</v>
       </c>
@@ -1531,7 +1532,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1">
         <v>10115</v>
       </c>
@@ -1547,7 +1548,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1">
         <v>10116</v>
       </c>
@@ -1563,7 +1564,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1">
         <v>10117</v>
       </c>
@@ -1579,7 +1580,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1">
         <v>10118</v>
       </c>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="4440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="3525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:C10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Home featured</t>
+  </si>
+  <si>
+    <t>NumberOfItems</t>
+  </si>
+  <si>
+    <t>Item Detail</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -364,7 +376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -384,6 +396,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,7 +698,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,15 +754,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -849,6 +862,27 @@
       </c>
       <c r="H8" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -901,7 +935,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1">
@@ -918,7 +952,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
@@ -933,7 +967,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
@@ -948,7 +982,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1">
         <v>10004</v>
       </c>
@@ -963,7 +997,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1">
         <v>10005</v>
       </c>
@@ -978,7 +1012,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1">
         <v>10006</v>
       </c>
@@ -993,7 +1027,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
         <v>10007</v>
       </c>
@@ -1008,7 +1042,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
         <v>10008</v>
       </c>
@@ -1023,7 +1057,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
         <v>10009</v>
       </c>
@@ -1038,7 +1072,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1">
         <v>10010</v>
       </c>
@@ -1053,7 +1087,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <v>10011</v>
       </c>
@@ -1068,7 +1102,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <v>10012</v>
       </c>
@@ -1083,7 +1117,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1">
         <v>10013</v>
       </c>
@@ -1098,7 +1132,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1">
         <v>10014</v>
       </c>
@@ -1113,7 +1147,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1">
         <v>10015</v>
       </c>
@@ -1128,7 +1162,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1">
         <v>10016</v>
       </c>
@@ -1143,7 +1177,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1">
         <v>10017</v>
       </c>
@@ -1158,7 +1192,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1">
         <v>10018</v>
       </c>
@@ -1173,7 +1207,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1">
         <v>10019</v>
       </c>
@@ -1188,7 +1222,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1">
         <v>10020</v>
       </c>
@@ -1203,7 +1237,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1">
         <v>10021</v>
       </c>
@@ -1216,7 +1250,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="6">
         <v>10022</v>
       </c>
@@ -1253,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1290,7 +1324,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="1">
@@ -1308,7 +1342,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1">
         <v>10101</v>
       </c>
@@ -1324,7 +1358,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1">
         <v>10102</v>
       </c>
@@ -1340,7 +1374,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1">
         <v>10103</v>
       </c>
@@ -1356,7 +1390,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1">
         <v>10104</v>
       </c>
@@ -1372,7 +1406,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1">
         <v>10105</v>
       </c>
@@ -1388,7 +1422,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
         <v>10106</v>
       </c>
@@ -1404,7 +1438,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
         <v>10107</v>
       </c>
@@ -1420,7 +1454,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
         <v>10108</v>
       </c>
@@ -1436,7 +1470,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1">
         <v>10109</v>
       </c>
@@ -1452,7 +1486,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <v>10110</v>
       </c>
@@ -1468,7 +1502,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <v>10111</v>
       </c>
@@ -1484,7 +1518,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1">
         <v>10112</v>
       </c>
@@ -1500,7 +1534,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1">
         <v>10113</v>
       </c>
@@ -1516,7 +1550,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1">
         <v>10114</v>
       </c>
@@ -1532,7 +1566,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1">
         <v>10115</v>
       </c>
@@ -1548,7 +1582,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1">
         <v>10116</v>
       </c>
@@ -1564,7 +1598,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1">
         <v>10117</v>
       </c>
@@ -1580,7 +1614,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1">
         <v>10118</v>
       </c>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="3525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="3525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:C10"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>Discounted Items and Price</t>
+  </si>
+  <si>
+    <t>Item No</t>
+  </si>
+  <si>
+    <t>After Discount</t>
+  </si>
+  <si>
+    <t>Before Discount</t>
+  </si>
+  <si>
+    <t>Discount Percentage</t>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -400,6 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,18 +771,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -883,6 +900,53 @@
       </c>
       <c r="B12" s="13" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>28.98</v>
+      </c>
+      <c r="C18" s="9">
+        <v>30.51</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="D19" s="16">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/TestAutomation/src/main/java/testdata/TestData.xlsx
+++ b/TestAutomation/src/main/java/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12285" windowHeight="3525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12675" windowHeight="3960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>10001_verifythatUserCanAbleToLoginUsingValidCredentials</t>
   </si>
@@ -300,6 +300,27 @@
   </si>
   <si>
     <t>Discount Percentage</t>
+  </si>
+  <si>
+    <t>-5%</t>
+  </si>
+  <si>
+    <t>-20%</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>$28.98</t>
+  </si>
+  <si>
+    <t>$16.40</t>
+  </si>
+  <si>
+    <t>$30.51</t>
+  </si>
+  <si>
+    <t>$20.50</t>
   </si>
 </sst>
 </file>
@@ -391,7 +412,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -412,11 +433,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -773,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,45 +928,45 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" s="9">
-        <v>28.98</v>
-      </c>
-      <c r="C18" s="9">
-        <v>30.51</v>
-      </c>
-      <c r="D18" s="16">
-        <v>-0.05</v>
+      <c r="A18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C19" s="9">
-        <v>20.5</v>
-      </c>
-      <c r="D19" s="16">
-        <v>-0.2</v>
+      <c r="A19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1019,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1">
@@ -1016,7 +1036,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
@@ -1031,7 +1051,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
@@ -1046,7 +1066,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>10004</v>
       </c>
@@ -1061,7 +1081,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>10005</v>
       </c>
@@ -1076,7 +1096,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>10006</v>
       </c>
@@ -1091,7 +1111,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>10007</v>
       </c>
@@ -1106,7 +1126,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>10008</v>
       </c>
@@ -1121,7 +1141,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>10009</v>
       </c>
@@ -1136,7 +1156,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>10010</v>
       </c>
@@ -1151,7 +1171,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>10011</v>
       </c>
@@ -1166,7 +1186,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>10012</v>
       </c>
@@ -1181,7 +1201,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1">
         <v>10013</v>
       </c>
@@ -1196,7 +1216,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1">
         <v>10014</v>
       </c>
@@ -1211,7 +1231,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1">
         <v>10015</v>
       </c>
@@ -1226,7 +1246,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1">
         <v>10016</v>
       </c>
@@ -1241,7 +1261,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1">
         <v>10017</v>
       </c>
@@ -1256,7 +1276,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1">
         <v>10018</v>
       </c>
@@ -1271,7 +1291,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1">
         <v>10019</v>
       </c>
@@ -1286,7 +1306,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="1">
         <v>10020</v>
       </c>
@@ -1301,7 +1321,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="1">
         <v>10021</v>
       </c>
@@ -1314,7 +1334,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="6">
         <v>10022</v>
       </c>
@@ -1388,7 +1408,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="1">
@@ -1406,7 +1426,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>10101</v>
       </c>
@@ -1422,7 +1442,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>10102</v>
       </c>
@@ -1438,7 +1458,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>10103</v>
       </c>
@@ -1454,7 +1474,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>10104</v>
       </c>
@@ -1470,7 +1490,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>10105</v>
       </c>
@@ -1486,7 +1506,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>10106</v>
       </c>
@@ -1502,7 +1522,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>10107</v>
       </c>
@@ -1518,7 +1538,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>10108</v>
       </c>
@@ -1534,7 +1554,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>10109</v>
       </c>
@@ -1550,7 +1570,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>10110</v>
       </c>
@@ -1566,7 +1586,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>10111</v>
       </c>
@@ -1582,7 +1602,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1">
         <v>10112</v>
       </c>
@@ -1598,7 +1618,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1">
         <v>10113</v>
       </c>
@@ -1614,7 +1634,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1">
         <v>10114</v>
       </c>
@@ -1630,7 +1650,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1">
         <v>10115</v>
       </c>
@@ -1646,7 +1666,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1">
         <v>10116</v>
       </c>
@@ -1662,7 +1682,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1">
         <v>10117</v>
       </c>
@@ -1678,7 +1698,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1">
         <v>10118</v>
       </c>
